--- a/src/analysis_examples/er4000/results_er4000/animal_01/cosinor_animal_01_tmp.xlsx
+++ b/src/analysis_examples/er4000/results_er4000/animal_01/cosinor_animal_01_tmp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,55 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.50000000000023</v>
+        <v>24.04000000000032</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.639902558192574e-08</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>4.987164856169188e-08</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.9999484619721974</v>
-      </c>
+        <v>2.328121676802425e-16</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>0.323438681040912</v>
+        <v>1.022353704386827</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.18743429060794625, 0.45944307147387775]</t>
+          <t>[0.9181954150184453, 1.1265119937552086]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>5.565009996377768e-06</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.565009996377768e-06</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.798763297309117</v>
+        <v>1.465447624197041</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[0.3962369112635784, 1.2012896833546556]</t>
+          <t>[1.3522370781217328, 1.578658170272349]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.0001305194491159067</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0001631493113948834</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>35.53518334854341</v>
+        <v>36.80528711476322</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[35.46424869574089, 35.60611800134593]</t>
+          <t>[36.73821276581787, 36.872361463708565]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -629,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>20.51251251251271</v>
+        <v>18.43307307307332</v>
       </c>
       <c r="X2" t="n">
-        <v>19.0070070070072</v>
+        <v>17.99991991992016</v>
       </c>
       <c r="Y2" t="n">
-        <v>22.01801801801823</v>
+        <v>18.86622622622648</v>
       </c>
     </row>
     <row r="3">
@@ -647,14 +645,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.9200000000003</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -663,18 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>4.655023164046778e-16</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.846507474174587e-10</v>
-      </c>
+        <v>2.328121676802425e-16</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>0.4639855266027517</v>
+        <v>1.075783570129403</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[0.3742296603242288, 0.5537413928812747]</t>
+          <t>[0.9700216850831822, 1.1815454551756233]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -684,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.943447707626118</v>
+        <v>2.283079345852042</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.7296055650394244, 2.157289850212811]</t>
+          <t>[2.1824477493406578, 2.383710942363426]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -698,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>35.27058422260065</v>
+        <v>36.41837031685424</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[35.2197267797189, 35.321441665482396]</t>
+          <t>[36.36465073637344, 36.472089897335046]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -712,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>16.52132132132153</v>
+        <v>15.1774174174176</v>
       </c>
       <c r="X3" t="n">
-        <v>15.70722722722742</v>
+        <v>14.79559559559577</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.33541541541564</v>
+        <v>15.55923923923942</v>
       </c>
     </row>
     <row r="4">
@@ -730,14 +726,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>23.9300000000003</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -746,16 +742,18 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H4" t="n">
-        <v>4.655023164046778e-16</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>2.328121676802425e-16</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
-        <v>0.4725418795658669</v>
+        <v>0.6375504901043954</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>[0.38723904783423535, 0.5578447112974985]</t>
+          <t>[0.526386709649568, 0.7487142705592227]</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -765,11 +763,11 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2.610132034514042</v>
+        <v>1.427710775505271</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[2.434026740619119, 2.7862373284089648]</t>
+          <t>[1.2390265320464247, 1.6163950189641172]</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -779,11 +777,11 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>35.67781824654685</v>
+        <v>36.3021525139803</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>[35.63348684665466, 35.722149646439036]</t>
+          <t>[36.23209958631354, 36.372205441647054]</t>
         </is>
       </c>
       <c r="U4" t="n">
@@ -793,13 +791,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>13.98910910910929</v>
+        <v>18.31471471471492</v>
       </c>
       <c r="X4" t="n">
-        <v>13.31839839839857</v>
+        <v>17.6030030030032</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.65981981982</v>
+        <v>19.02642642642664</v>
       </c>
     </row>
     <row r="5">
@@ -811,14 +809,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4_hypo_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>23.70000000000027</v>
+        <v>25.53000000000055</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -827,18 +825,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H5" t="n">
-        <v>4.655023164046778e-16</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5.662137425588298e-15</v>
-      </c>
+        <v>2.328121676802425e-16</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>0.4238415340388606</v>
+        <v>1.073489080837021</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>[0.33819749117672515, 0.509485576900996]</t>
+          <t>[0.9532821238608733, 1.1936960378131687]</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -848,25 +844,25 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.3773684869176925</v>
+        <v>-1.899421384152387</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[-0.5912106295043857, -0.16352634433099933]</t>
+          <t>[-2.0126319302276947, -1.7862108380770803]</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>0.0005727565196602669</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0005727565196602669</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>35.67463152552925</v>
+        <v>36.26360265019388</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>[35.628117122768884, 35.721145928289616]</t>
+          <t>[36.195665564661525, 36.33153973572624]</t>
         </is>
       </c>
       <c r="U5" t="n">
@@ -876,94 +872,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1.42342342342344</v>
+        <v>7.717777777777947</v>
       </c>
       <c r="X5" t="n">
-        <v>0.6168168168168222</v>
+        <v>7.25777777777794</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.230030030030058</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>24.72000000000043</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.110223024625157e-16</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4.655023164046778e-16</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>0.6494070889213823</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>[0.5330036228594146, 0.76581055498335]</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-0.6792632764518469</v>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>[-0.855368570346771, -0.5031579825569228]</t>
-        </is>
-      </c>
-      <c r="Q6" t="n">
-        <v>3.455014052633487e-13</v>
-      </c>
-      <c r="R6" t="n">
-        <v>5.758356754389146e-13</v>
-      </c>
-      <c r="S6" t="n">
-        <v>35.6980410002237</v>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>[35.63895895697967, 35.75712304346772]</t>
-        </is>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>2.67243243243248</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1.979579579579612</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>3.365285285285347</v>
+        <v>8.177777777777955</v>
       </c>
     </row>
   </sheetData>
